--- a/planilha base.xlsx
+++ b/planilha base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmorimPedro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC731FC-7CB5-4DCF-8DE4-A5B8FE277A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B606DCC4-233F-40B9-B176-7EC1F5ABACF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6EECC71E-FF82-43C4-9D0A-1C26EA27CC85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6EECC71E-FF82-43C4-9D0A-1C26EA27CC85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="85">
   <si>
     <t>Asset Class</t>
   </si>
@@ -252,13 +252,52 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      High Grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      High Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      CoCos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Emerging Markets Debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      EM Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Mixed Debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Distressed Debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     US Government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     US Equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     US Growth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     European Equty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Emerging Markets Equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     World Equity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,8 +319,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +343,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,11 +399,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -381,8 +434,22 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="blp_column_header" xfId="2" xr:uid="{DBA08FE8-66BB-499A-ABD0-E04FF80B96DA}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -716,25 +783,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC18D9FE-18C6-4540-87BA-D04BEE49D590}">
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:R190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84:G85"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="K170" sqref="K170:R190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -763,7 +830,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>45627</v>
       </c>
@@ -792,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>45627</v>
       </c>
@@ -821,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>45627</v>
       </c>
@@ -850,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>45627</v>
       </c>
@@ -879,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>45627</v>
       </c>
@@ -908,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>45627</v>
       </c>
@@ -937,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>45627</v>
       </c>
@@ -966,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>45627</v>
       </c>
@@ -995,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>45627</v>
       </c>
@@ -1024,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>45627</v>
       </c>
@@ -1053,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>45627</v>
       </c>
@@ -1082,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>45627</v>
       </c>
@@ -1111,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45627</v>
       </c>
@@ -1140,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>45627</v>
       </c>
@@ -1169,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>45627</v>
       </c>
@@ -1198,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>45627</v>
       </c>
@@ -1227,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>45627</v>
       </c>
@@ -1256,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>45627</v>
       </c>
@@ -1285,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>45627</v>
       </c>
@@ -1314,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>45627</v>
       </c>
@@ -1343,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>45627</v>
       </c>
@@ -1372,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>45658</v>
       </c>
@@ -1401,7 +1468,7 @@
         <v>-3.0389928496838851E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>45658</v>
       </c>
@@ -1430,7 +1497,7 @@
         <v>6.1671855166961394E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>45658</v>
       </c>
@@ -1459,7 +1526,7 @@
         <v>2.1379218861382484E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>45658</v>
       </c>
@@ -1488,7 +1555,7 @@
         <v>1.1379384595015902E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>45658</v>
       </c>
@@ -1517,7 +1584,7 @@
         <v>9.5064798582929623E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>45658</v>
       </c>
@@ -1546,7 +1613,7 @@
         <v>7.9213325194451851E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>45658</v>
       </c>
@@ -1575,7 +1642,7 @@
         <v>6.5552312867975411E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>45658</v>
       </c>
@@ -1604,7 +1671,7 @@
         <v>-8.9884062183776732E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>45658</v>
       </c>
@@ -1633,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>45658</v>
       </c>
@@ -1662,7 +1729,7 @@
         <v>6.1726674406643704E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>45658</v>
       </c>
@@ -1691,7 +1758,7 @@
         <v>4.9815600672063242E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>45658</v>
       </c>
@@ -1720,7 +1787,7 @@
         <v>2.1340034093932344E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>45658</v>
       </c>
@@ -1749,7 +1816,7 @@
         <v>2.3092422471453255E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>45658</v>
       </c>
@@ -1778,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>45658</v>
       </c>
@@ -1807,7 +1874,7 @@
         <v>4.2752439087888046E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>45658</v>
       </c>
@@ -1836,7 +1903,7 @@
         <v>1.1079001978888374E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>45658</v>
       </c>
@@ -1865,7 +1932,7 @@
         <v>1.0009925641724466E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>45658</v>
       </c>
@@ -1894,7 +1961,7 @@
         <v>2.0603291717937763E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>45658</v>
       </c>
@@ -1923,7 +1990,7 @@
         <v>4.20488331154385E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>45658</v>
       </c>
@@ -1952,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>45658</v>
       </c>
@@ -1981,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>45689</v>
       </c>
@@ -2010,7 +2077,7 @@
         <v>-1.6777567173139029E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>45689</v>
       </c>
@@ -2039,7 +2106,7 @@
         <v>1.5355646427807302E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>45689</v>
       </c>
@@ -2068,7 +2135,7 @@
         <v>5.6117680554929319E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>45689</v>
       </c>
@@ -2097,7 +2164,7 @@
         <v>8.4720936930571592E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>45689</v>
       </c>
@@ -2126,7 +2193,7 @@
         <v>1.7314123172339287E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>45689</v>
       </c>
@@ -2155,7 +2222,7 @@
         <v>1.9720794710121571E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>45689</v>
       </c>
@@ -2184,7 +2251,7 @@
         <v>1.6248006172822405E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>45689</v>
       </c>
@@ -2213,7 +2280,7 @@
         <v>1.7451097483378911E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>45689</v>
       </c>
@@ -2242,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>45689</v>
       </c>
@@ -2271,7 +2338,7 @@
         <v>1.823266849142435E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>45689</v>
       </c>
@@ -2300,7 +2367,7 @@
         <v>1.753101815658686E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>45689</v>
       </c>
@@ -2329,7 +2396,7 @@
         <v>1.7610154000967956E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>45689</v>
       </c>
@@ -2358,7 +2425,7 @@
         <v>-4.8938682233872746E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>45689</v>
       </c>
@@ -2387,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>45689</v>
       </c>
@@ -2416,7 +2483,7 @@
         <v>1.4174507559703657E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>45689</v>
       </c>
@@ -2445,7 +2512,7 @@
         <v>2.0848820191251332E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>45689</v>
       </c>
@@ -2474,7 +2541,7 @@
         <v>3.8836902474546882E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>45689</v>
       </c>
@@ -2503,7 +2570,7 @@
         <v>2.6771828026373084E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>45689</v>
       </c>
@@ -2532,7 +2599,7 @@
         <v>1.3954810314677562E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>45689</v>
       </c>
@@ -2561,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>45689</v>
       </c>
@@ -2590,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>45717</v>
       </c>
@@ -2619,7 +2686,7 @@
         <v>-1.8591757410997493E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>45717</v>
       </c>
@@ -2648,7 +2715,7 @@
         <v>1.2034711106536266E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>45717</v>
       </c>
@@ -2677,7 +2744,7 @@
         <v>4.6169633690613388E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>45717</v>
       </c>
@@ -2706,7 +2773,7 @@
         <v>3.3033673145014977E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>45717</v>
       </c>
@@ -2735,7 +2802,7 @@
         <v>1.0307428540290318E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>45717</v>
       </c>
@@ -2764,7 +2831,7 @@
         <v>1.2852894885761129E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>45717</v>
       </c>
@@ -2793,7 +2860,7 @@
         <v>1.3300057366850576E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>45717</v>
       </c>
@@ -2822,7 +2889,7 @@
         <v>1.6972225398387299E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>45717</v>
       </c>
@@ -2851,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>45717</v>
       </c>
@@ -2880,7 +2947,7 @@
         <v>1.7441503868958436E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>45717</v>
       </c>
@@ -2909,7 +2976,7 @@
         <v>-9.9572939387344087E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>45717</v>
       </c>
@@ -2938,7 +3005,7 @@
         <v>-3.4788634869528066E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>45717</v>
       </c>
@@ -2967,7 +3034,7 @@
         <v>-7.9370013304372045E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>45717</v>
       </c>
@@ -2996,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>45717</v>
       </c>
@@ -3025,7 +3092,7 @@
         <v>1.2918891467162917E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>45717</v>
       </c>
@@ -3054,7 +3121,7 @@
         <v>1.6668173193931207E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>45717</v>
       </c>
@@ -3083,7 +3150,7 @@
         <v>3.4423266906109425E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>45717</v>
       </c>
@@ -3112,7 +3179,7 @@
         <v>5.6459434278805457E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>45717</v>
       </c>
@@ -3141,7 +3208,7 @@
         <v>6.5671957043653747E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>45717</v>
       </c>
@@ -3170,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>45717</v>
       </c>
@@ -3199,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>45748</v>
       </c>
@@ -3228,7 +3295,7 @@
         <v>-4.6111406429544309E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>45748</v>
       </c>
@@ -3257,7 +3324,7 @@
         <v>1.2160481569795187E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>45748</v>
       </c>
@@ -3286,7 +3353,7 @@
         <v>5.6905129325174884E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>45748</v>
       </c>
@@ -3315,7 +3382,7 @@
         <v>1.6974615195126341E-5</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>45748</v>
       </c>
@@ -3344,7 +3411,7 @@
         <v>-6.1506571513929203E-6</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>45748</v>
       </c>
@@ -3373,7 +3440,7 @@
         <v>9.4109431567365127E-5</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>45748</v>
       </c>
@@ -3402,7 +3469,7 @@
         <v>1.2367764580876361E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>45748</v>
       </c>
@@ -3431,7 +3498,7 @@
         <v>2.1523646328687723E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>45748</v>
       </c>
@@ -3460,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>45748</v>
       </c>
@@ -3489,7 +3556,7 @@
         <v>1.89540440691036E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>45748</v>
       </c>
@@ -3518,7 +3585,7 @@
         <v>-1.4935928947955484E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>45748</v>
       </c>
@@ -3547,7 +3614,7 @@
         <v>-6.1632520788681955E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>45748</v>
       </c>
@@ -3576,7 +3643,7 @@
         <v>-9.7254303026219236E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>45748</v>
       </c>
@@ -3605,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>45748</v>
       </c>
@@ -3634,7 +3701,7 @@
         <v>9.1706800905788974E-5</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>45748</v>
       </c>
@@ -3663,7 +3730,7 @@
         <v>3.5685424476747944E-6</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>45748</v>
       </c>
@@ -3692,7 +3759,7 @@
         <v>3.0566251878999285E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>45748</v>
       </c>
@@ -3721,7 +3788,7 @@
         <v>7.836884872194996E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>45748</v>
       </c>
@@ -3750,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>45748</v>
       </c>
@@ -3779,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>45748</v>
       </c>
@@ -3808,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>45778</v>
       </c>
@@ -3837,7 +3904,7 @@
         <v>-4.2594240065810755E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>45778</v>
       </c>
@@ -3866,7 +3933,7 @@
         <v>1.3526962035478261E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>45778</v>
       </c>
@@ -3895,7 +3962,7 @@
         <v>5.7175032473978319E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>45778</v>
       </c>
@@ -3924,7 +3991,7 @@
         <v>1.0092012745382913E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>45778</v>
       </c>
@@ -3953,7 +4020,7 @@
         <v>-9.9661980165708947E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>45778</v>
       </c>
@@ -3982,7 +4049,7 @@
         <v>1.5528752543375953E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>45778</v>
       </c>
@@ -4011,7 +4078,7 @@
         <v>1.4393466674749093E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>45778</v>
       </c>
@@ -4040,7 +4107,7 @@
         <v>3.2403926317299313E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>45778</v>
       </c>
@@ -4069,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>45778</v>
       </c>
@@ -4098,7 +4165,7 @@
         <v>1.5642627616567909E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>45778</v>
       </c>
@@ -4127,7 +4194,7 @@
         <v>-8.1718848229697628E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>45778</v>
       </c>
@@ -4156,7 +4223,7 @@
         <v>-2.8495589964684436E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>45778</v>
       </c>
@@ -4185,7 +4252,7 @@
         <v>5.9412210095344622E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>45778</v>
       </c>
@@ -4214,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>45778</v>
       </c>
@@ -4243,7 +4310,7 @@
         <v>1.0674158449350104E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>45778</v>
       </c>
@@ -4272,7 +4339,7 @@
         <v>3.7083256828301101E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>45778</v>
       </c>
@@ -4301,7 +4368,7 @@
         <v>3.0851042745897806E-4</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>45778</v>
       </c>
@@ -4330,7 +4397,7 @@
         <v>7.2755280735455376E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>45778</v>
       </c>
@@ -4359,7 +4426,7 @@
         <v>6.4446323961329563E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>45778</v>
       </c>
@@ -4388,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>45778</v>
       </c>
@@ -4417,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>45809</v>
       </c>
@@ -4446,7 +4513,7 @@
         <v>-6.1227592999240606E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>45809</v>
       </c>
@@ -4475,7 +4542,7 @@
         <v>2.7716315352970269E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>45809</v>
       </c>
@@ -4504,7 +4571,7 @@
         <v>1.0405067192814279E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>45809</v>
       </c>
@@ -4533,7 +4600,7 @@
         <v>2.3910085732966953E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>45809</v>
       </c>
@@ -4562,7 +4629,7 @@
         <v>-1.2013207400617685E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>45809</v>
       </c>
@@ -4591,7 +4658,7 @@
         <v>3.4553726790184569E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>45809</v>
       </c>
@@ -4620,7 +4687,7 @@
         <v>2.6522509031588529E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>45809</v>
       </c>
@@ -4649,7 +4716,7 @@
         <v>6.5459872540376898E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>45809</v>
       </c>
@@ -4678,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>45809</v>
       </c>
@@ -4707,7 +4774,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>45809</v>
       </c>
@@ -4736,7 +4803,7 @@
         <v>1.0630382628124652E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>45809</v>
       </c>
@@ -4765,7 +4832,7 @@
         <v>-1.5237214113735637E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>45809</v>
       </c>
@@ -4794,7 +4861,7 @@
         <v>8.6579293768349122E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>45809</v>
       </c>
@@ -4823,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>45809</v>
       </c>
@@ -4852,7 +4919,7 @@
         <v>2.6964006815134527E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>45809</v>
       </c>
@@ -4881,7 +4948,7 @@
         <v>7.9977398114985151E-4</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>45809</v>
       </c>
@@ -4910,7 +4977,7 @@
         <v>8.814854516737636E-4</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>45809</v>
       </c>
@@ -4939,7 +5006,7 @@
         <v>8.7780628865405403E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>45809</v>
       </c>
@@ -4968,7 +5035,7 @@
         <v>8.1521834812914708E-4</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>45809</v>
       </c>
@@ -4997,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>45809</v>
       </c>
@@ -5026,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>45839</v>
       </c>
@@ -5055,7 +5122,7 @@
         <v>-4.4298362309242081E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>45839</v>
       </c>
@@ -5084,7 +5151,7 @@
         <v>3.1203886698895962E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>45839</v>
       </c>
@@ -5113,7 +5180,7 @@
         <v>1.2398868148094513E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>45839</v>
       </c>
@@ -5142,7 +5209,7 @@
         <v>2.4726740084313444E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>45839</v>
       </c>
@@ -5171,7 +5238,7 @@
         <v>-1.1978909150783766E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>45839</v>
       </c>
@@ -5200,7 +5267,7 @@
         <v>4.4166449257227241E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>45839</v>
       </c>
@@ -5229,7 +5296,7 @@
         <v>2.9576488528248453E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>45839</v>
       </c>
@@ -5258,7 +5325,7 @@
         <v>7.1964705273187528E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>45839</v>
       </c>
@@ -5287,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>45839</v>
       </c>
@@ -5316,7 +5383,7 @@
         <v>2.9594711515821565E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>45839</v>
       </c>
@@ -5345,7 +5412,7 @@
         <v>1.8016732337643789E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>45839</v>
       </c>
@@ -5374,7 +5441,7 @@
         <v>-8.0643455076055389E-4</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>45839</v>
       </c>
@@ -5403,7 +5470,7 @@
         <v>1.4868385170458395E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>45839</v>
       </c>
@@ -5432,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>45839</v>
       </c>
@@ -5461,7 +5528,7 @@
         <v>2.9693644211505514E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>45839</v>
       </c>
@@ -5490,7 +5557,7 @@
         <v>9.8541729679539787E-4</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>45839</v>
       </c>
@@ -5519,7 +5586,7 @@
         <v>1.5764822911611082E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>45839</v>
       </c>
@@ -5548,7 +5615,7 @@
         <v>8.550299861882632E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>45839</v>
       </c>
@@ -5577,7 +5644,7 @@
         <v>8.0703855481177025E-4</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>45839</v>
       </c>
@@ -5606,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>45839</v>
       </c>
@@ -5635,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>45870</v>
       </c>
@@ -5663,8 +5730,16 @@
       <c r="I170" s="9">
         <v>-4.9175379254796491E-3</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K170" s="13"/>
+      <c r="L170" s="14"/>
+      <c r="M170" s="14"/>
+      <c r="N170" s="15"/>
+      <c r="O170" s="16"/>
+      <c r="P170" s="17"/>
+      <c r="Q170" s="16"/>
+      <c r="R170" s="17"/>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>45870</v>
       </c>
@@ -5692,13 +5767,21 @@
       <c r="I171" s="9">
         <v>3.9012277641857385E-2</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K171" s="13"/>
+      <c r="L171" s="14"/>
+      <c r="M171" s="14"/>
+      <c r="N171" s="15"/>
+      <c r="O171" s="16"/>
+      <c r="P171" s="17"/>
+      <c r="Q171" s="16"/>
+      <c r="R171" s="17"/>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>45870</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>26</v>
@@ -5721,13 +5804,21 @@
       <c r="I172" s="9">
         <v>1.521312139331938E-2</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K172" s="13"/>
+      <c r="L172" s="14"/>
+      <c r="M172" s="14"/>
+      <c r="N172" s="15"/>
+      <c r="O172" s="16"/>
+      <c r="P172" s="17"/>
+      <c r="Q172" s="16"/>
+      <c r="R172" s="17"/>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>45870</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>29</v>
@@ -5750,13 +5841,21 @@
       <c r="I173" s="9">
         <v>2.6940157822306775E-3</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K173" s="13"/>
+      <c r="L173" s="14"/>
+      <c r="M173" s="14"/>
+      <c r="N173" s="15"/>
+      <c r="O173" s="16"/>
+      <c r="P173" s="17"/>
+      <c r="Q173" s="16"/>
+      <c r="R173" s="17"/>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>45870</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>32</v>
@@ -5779,13 +5878,21 @@
       <c r="I174" s="9">
         <v>-1.1941716885671609E-3</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K174" s="13"/>
+      <c r="L174" s="14"/>
+      <c r="M174" s="14"/>
+      <c r="N174" s="15"/>
+      <c r="O174" s="16"/>
+      <c r="P174" s="17"/>
+      <c r="Q174" s="16"/>
+      <c r="R174" s="17"/>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>45870</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>35</v>
@@ -5808,13 +5915,21 @@
       <c r="I175" s="9">
         <v>5.7143949540638134E-3</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K175" s="13"/>
+      <c r="L175" s="14"/>
+      <c r="M175" s="14"/>
+      <c r="N175" s="15"/>
+      <c r="O175" s="16"/>
+      <c r="P175" s="17"/>
+      <c r="Q175" s="16"/>
+      <c r="R175" s="17"/>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>45870</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>38</v>
@@ -5837,13 +5952,21 @@
       <c r="I176" s="9">
         <v>3.3603575854561419E-3</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K176" s="13"/>
+      <c r="L176" s="14"/>
+      <c r="M176" s="14"/>
+      <c r="N176" s="15"/>
+      <c r="O176" s="16"/>
+      <c r="P176" s="17"/>
+      <c r="Q176" s="16"/>
+      <c r="R176" s="17"/>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>45870</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>40</v>
@@ -5866,13 +5989,21 @@
       <c r="I177" s="9">
         <v>9.0144602116254257E-3</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K177" s="13"/>
+      <c r="L177" s="14"/>
+      <c r="M177" s="14"/>
+      <c r="N177" s="15"/>
+      <c r="O177" s="16"/>
+      <c r="P177" s="17"/>
+      <c r="Q177" s="16"/>
+      <c r="R177" s="17"/>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>45870</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>43</v>
@@ -5895,13 +6026,21 @@
       <c r="I178" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K178" s="13"/>
+      <c r="L178" s="14"/>
+      <c r="M178" s="14"/>
+      <c r="N178" s="15"/>
+      <c r="O178" s="16"/>
+      <c r="P178" s="17"/>
+      <c r="Q178" s="16"/>
+      <c r="R178" s="17"/>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>45870</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>46</v>
@@ -5924,8 +6063,16 @@
       <c r="I179" s="9">
         <v>4.2100994037291093E-3</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K179" s="13"/>
+      <c r="L179" s="14"/>
+      <c r="M179" s="14"/>
+      <c r="N179" s="15"/>
+      <c r="O179" s="16"/>
+      <c r="P179" s="17"/>
+      <c r="Q179" s="16"/>
+      <c r="R179" s="17"/>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>45870</v>
       </c>
@@ -5953,13 +6100,21 @@
       <c r="I180" s="9">
         <v>1.9765433825468946E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K180" s="13"/>
+      <c r="L180" s="14"/>
+      <c r="M180" s="14"/>
+      <c r="N180" s="15"/>
+      <c r="O180" s="16"/>
+      <c r="P180" s="17"/>
+      <c r="Q180" s="16"/>
+      <c r="R180" s="17"/>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>45870</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>8</v>
@@ -5982,13 +6137,21 @@
       <c r="I181" s="9">
         <v>3.4039286834909328E-4</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K181" s="13"/>
+      <c r="L181" s="14"/>
+      <c r="M181" s="14"/>
+      <c r="N181" s="15"/>
+      <c r="O181" s="16"/>
+      <c r="P181" s="17"/>
+      <c r="Q181" s="16"/>
+      <c r="R181" s="17"/>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>45870</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>8</v>
@@ -6011,13 +6174,21 @@
       <c r="I182" s="9">
         <v>1.3638625143571788E-2</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K182" s="13"/>
+      <c r="L182" s="14"/>
+      <c r="M182" s="14"/>
+      <c r="N182" s="15"/>
+      <c r="O182" s="16"/>
+      <c r="P182" s="17"/>
+      <c r="Q182" s="16"/>
+      <c r="R182" s="17"/>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>45870</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>8</v>
@@ -6040,13 +6211,21 @@
       <c r="I183" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K183" s="13"/>
+      <c r="L183" s="14"/>
+      <c r="M183" s="14"/>
+      <c r="N183" s="15"/>
+      <c r="O183" s="16"/>
+      <c r="P183" s="17"/>
+      <c r="Q183" s="16"/>
+      <c r="R183" s="17"/>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>45870</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>8</v>
@@ -6069,13 +6248,21 @@
       <c r="I184" s="9">
         <v>3.7002360841245879E-3</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K184" s="13"/>
+      <c r="L184" s="14"/>
+      <c r="M184" s="14"/>
+      <c r="N184" s="15"/>
+      <c r="O184" s="16"/>
+      <c r="P184" s="17"/>
+      <c r="Q184" s="16"/>
+      <c r="R184" s="17"/>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>45870</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>8</v>
@@ -6098,8 +6285,16 @@
       <c r="I185" s="9">
         <v>2.0861797294234748E-3</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K185" s="13"/>
+      <c r="L185" s="14"/>
+      <c r="M185" s="14"/>
+      <c r="N185" s="15"/>
+      <c r="O185" s="16"/>
+      <c r="P185" s="17"/>
+      <c r="Q185" s="16"/>
+      <c r="R185" s="17"/>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>45870</v>
       </c>
@@ -6127,8 +6322,16 @@
       <c r="I186" s="9">
         <v>7.8048293874576902E-3</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K186" s="13"/>
+      <c r="L186" s="14"/>
+      <c r="M186" s="14"/>
+      <c r="N186" s="15"/>
+      <c r="O186" s="16"/>
+      <c r="P186" s="17"/>
+      <c r="Q186" s="16"/>
+      <c r="R186" s="17"/>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>45870</v>
       </c>
@@ -6156,8 +6359,16 @@
       <c r="I187" s="9">
         <v>1.0776329655270464E-2</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K187" s="13"/>
+      <c r="L187" s="14"/>
+      <c r="M187" s="14"/>
+      <c r="N187" s="15"/>
+      <c r="O187" s="16"/>
+      <c r="P187" s="17"/>
+      <c r="Q187" s="16"/>
+      <c r="R187" s="17"/>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>45870</v>
       </c>
@@ -6185,8 +6396,16 @@
       <c r="I188" s="9">
         <v>1.3296052523578054E-3</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K188" s="13"/>
+      <c r="L188" s="14"/>
+      <c r="M188" s="14"/>
+      <c r="N188" s="15"/>
+      <c r="O188" s="16"/>
+      <c r="P188" s="17"/>
+      <c r="Q188" s="16"/>
+      <c r="R188" s="17"/>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>45870</v>
       </c>
@@ -6214,8 +6433,16 @@
       <c r="I189" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K189" s="13"/>
+      <c r="L189" s="14"/>
+      <c r="M189" s="14"/>
+      <c r="N189" s="15"/>
+      <c r="O189" s="16"/>
+      <c r="P189" s="17"/>
+      <c r="Q189" s="16"/>
+      <c r="R189" s="17"/>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>45870</v>
       </c>
@@ -6243,6 +6470,14 @@
       <c r="I190" s="9">
         <v>0</v>
       </c>
+      <c r="K190" s="13"/>
+      <c r="L190" s="14"/>
+      <c r="M190" s="14"/>
+      <c r="N190" s="15"/>
+      <c r="O190" s="16"/>
+      <c r="P190" s="17"/>
+      <c r="Q190" s="16"/>
+      <c r="R190" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planilha base.xlsx
+++ b/planilha base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmorimPedro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B606DCC4-233F-40B9-B176-7EC1F5ABACF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{730D7A8A-1B9E-40C5-B404-6DEB5DE31536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6EECC71E-FF82-43C4-9D0A-1C26EA27CC85}"/>
   </bookViews>
@@ -404,7 +404,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -432,19 +432,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -783,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC18D9FE-18C6-4540-87BA-D04BEE49D590}">
-  <dimension ref="A1:R190"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="K170" sqref="K170:R190"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5441,7 +5428,7 @@
         <v>-8.0643455076055389E-4</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>45839</v>
       </c>
@@ -5470,7 +5457,7 @@
         <v>1.4868385170458395E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>45839</v>
       </c>
@@ -5499,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>45839</v>
       </c>
@@ -5528,7 +5515,7 @@
         <v>2.9693644211505514E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>45839</v>
       </c>
@@ -5557,7 +5544,7 @@
         <v>9.8541729679539787E-4</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>45839</v>
       </c>
@@ -5586,7 +5573,7 @@
         <v>1.5764822911611082E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>45839</v>
       </c>
@@ -5615,7 +5602,7 @@
         <v>8.550299861882632E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>45839</v>
       </c>
@@ -5644,7 +5631,7 @@
         <v>8.0703855481177025E-4</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>45839</v>
       </c>
@@ -5673,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>45839</v>
       </c>
@@ -5702,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>45870</v>
       </c>
@@ -5730,16 +5717,8 @@
       <c r="I170" s="9">
         <v>-4.9175379254796491E-3</v>
       </c>
-      <c r="K170" s="13"/>
-      <c r="L170" s="14"/>
-      <c r="M170" s="14"/>
-      <c r="N170" s="15"/>
-      <c r="O170" s="16"/>
-      <c r="P170" s="17"/>
-      <c r="Q170" s="16"/>
-      <c r="R170" s="17"/>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>45870</v>
       </c>
@@ -5767,16 +5746,8 @@
       <c r="I171" s="9">
         <v>3.9012277641857385E-2</v>
       </c>
-      <c r="K171" s="13"/>
-      <c r="L171" s="14"/>
-      <c r="M171" s="14"/>
-      <c r="N171" s="15"/>
-      <c r="O171" s="16"/>
-      <c r="P171" s="17"/>
-      <c r="Q171" s="16"/>
-      <c r="R171" s="17"/>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>45870</v>
       </c>
@@ -5804,16 +5775,8 @@
       <c r="I172" s="9">
         <v>1.521312139331938E-2</v>
       </c>
-      <c r="K172" s="13"/>
-      <c r="L172" s="14"/>
-      <c r="M172" s="14"/>
-      <c r="N172" s="15"/>
-      <c r="O172" s="16"/>
-      <c r="P172" s="17"/>
-      <c r="Q172" s="16"/>
-      <c r="R172" s="17"/>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>45870</v>
       </c>
@@ -5841,16 +5804,8 @@
       <c r="I173" s="9">
         <v>2.6940157822306775E-3</v>
       </c>
-      <c r="K173" s="13"/>
-      <c r="L173" s="14"/>
-      <c r="M173" s="14"/>
-      <c r="N173" s="15"/>
-      <c r="O173" s="16"/>
-      <c r="P173" s="17"/>
-      <c r="Q173" s="16"/>
-      <c r="R173" s="17"/>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>45870</v>
       </c>
@@ -5878,16 +5833,8 @@
       <c r="I174" s="9">
         <v>-1.1941716885671609E-3</v>
       </c>
-      <c r="K174" s="13"/>
-      <c r="L174" s="14"/>
-      <c r="M174" s="14"/>
-      <c r="N174" s="15"/>
-      <c r="O174" s="16"/>
-      <c r="P174" s="17"/>
-      <c r="Q174" s="16"/>
-      <c r="R174" s="17"/>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>45870</v>
       </c>
@@ -5915,16 +5862,8 @@
       <c r="I175" s="9">
         <v>5.7143949540638134E-3</v>
       </c>
-      <c r="K175" s="13"/>
-      <c r="L175" s="14"/>
-      <c r="M175" s="14"/>
-      <c r="N175" s="15"/>
-      <c r="O175" s="16"/>
-      <c r="P175" s="17"/>
-      <c r="Q175" s="16"/>
-      <c r="R175" s="17"/>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>45870</v>
       </c>
@@ -5952,16 +5891,8 @@
       <c r="I176" s="9">
         <v>3.3603575854561419E-3</v>
       </c>
-      <c r="K176" s="13"/>
-      <c r="L176" s="14"/>
-      <c r="M176" s="14"/>
-      <c r="N176" s="15"/>
-      <c r="O176" s="16"/>
-      <c r="P176" s="17"/>
-      <c r="Q176" s="16"/>
-      <c r="R176" s="17"/>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>45870</v>
       </c>
@@ -5989,16 +5920,8 @@
       <c r="I177" s="9">
         <v>9.0144602116254257E-3</v>
       </c>
-      <c r="K177" s="13"/>
-      <c r="L177" s="14"/>
-      <c r="M177" s="14"/>
-      <c r="N177" s="15"/>
-      <c r="O177" s="16"/>
-      <c r="P177" s="17"/>
-      <c r="Q177" s="16"/>
-      <c r="R177" s="17"/>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>45870</v>
       </c>
@@ -6026,16 +5949,8 @@
       <c r="I178" s="9">
         <v>0</v>
       </c>
-      <c r="K178" s="13"/>
-      <c r="L178" s="14"/>
-      <c r="M178" s="14"/>
-      <c r="N178" s="15"/>
-      <c r="O178" s="16"/>
-      <c r="P178" s="17"/>
-      <c r="Q178" s="16"/>
-      <c r="R178" s="17"/>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>45870</v>
       </c>
@@ -6063,16 +5978,8 @@
       <c r="I179" s="9">
         <v>4.2100994037291093E-3</v>
       </c>
-      <c r="K179" s="13"/>
-      <c r="L179" s="14"/>
-      <c r="M179" s="14"/>
-      <c r="N179" s="15"/>
-      <c r="O179" s="16"/>
-      <c r="P179" s="17"/>
-      <c r="Q179" s="16"/>
-      <c r="R179" s="17"/>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>45870</v>
       </c>
@@ -6100,16 +6007,8 @@
       <c r="I180" s="9">
         <v>1.9765433825468946E-2</v>
       </c>
-      <c r="K180" s="13"/>
-      <c r="L180" s="14"/>
-      <c r="M180" s="14"/>
-      <c r="N180" s="15"/>
-      <c r="O180" s="16"/>
-      <c r="P180" s="17"/>
-      <c r="Q180" s="16"/>
-      <c r="R180" s="17"/>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>45870</v>
       </c>
@@ -6137,16 +6036,8 @@
       <c r="I181" s="9">
         <v>3.4039286834909328E-4</v>
       </c>
-      <c r="K181" s="13"/>
-      <c r="L181" s="14"/>
-      <c r="M181" s="14"/>
-      <c r="N181" s="15"/>
-      <c r="O181" s="16"/>
-      <c r="P181" s="17"/>
-      <c r="Q181" s="16"/>
-      <c r="R181" s="17"/>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>45870</v>
       </c>
@@ -6174,16 +6065,8 @@
       <c r="I182" s="9">
         <v>1.3638625143571788E-2</v>
       </c>
-      <c r="K182" s="13"/>
-      <c r="L182" s="14"/>
-      <c r="M182" s="14"/>
-      <c r="N182" s="15"/>
-      <c r="O182" s="16"/>
-      <c r="P182" s="17"/>
-      <c r="Q182" s="16"/>
-      <c r="R182" s="17"/>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>45870</v>
       </c>
@@ -6211,16 +6094,8 @@
       <c r="I183" s="9">
         <v>0</v>
       </c>
-      <c r="K183" s="13"/>
-      <c r="L183" s="14"/>
-      <c r="M183" s="14"/>
-      <c r="N183" s="15"/>
-      <c r="O183" s="16"/>
-      <c r="P183" s="17"/>
-      <c r="Q183" s="16"/>
-      <c r="R183" s="17"/>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>45870</v>
       </c>
@@ -6248,16 +6123,8 @@
       <c r="I184" s="9">
         <v>3.7002360841245879E-3</v>
       </c>
-      <c r="K184" s="13"/>
-      <c r="L184" s="14"/>
-      <c r="M184" s="14"/>
-      <c r="N184" s="15"/>
-      <c r="O184" s="16"/>
-      <c r="P184" s="17"/>
-      <c r="Q184" s="16"/>
-      <c r="R184" s="17"/>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>45870</v>
       </c>
@@ -6285,16 +6152,8 @@
       <c r="I185" s="9">
         <v>2.0861797294234748E-3</v>
       </c>
-      <c r="K185" s="13"/>
-      <c r="L185" s="14"/>
-      <c r="M185" s="14"/>
-      <c r="N185" s="15"/>
-      <c r="O185" s="16"/>
-      <c r="P185" s="17"/>
-      <c r="Q185" s="16"/>
-      <c r="R185" s="17"/>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>45870</v>
       </c>
@@ -6322,16 +6181,8 @@
       <c r="I186" s="9">
         <v>7.8048293874576902E-3</v>
       </c>
-      <c r="K186" s="13"/>
-      <c r="L186" s="14"/>
-      <c r="M186" s="14"/>
-      <c r="N186" s="15"/>
-      <c r="O186" s="16"/>
-      <c r="P186" s="17"/>
-      <c r="Q186" s="16"/>
-      <c r="R186" s="17"/>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>45870</v>
       </c>
@@ -6359,16 +6210,8 @@
       <c r="I187" s="9">
         <v>1.0776329655270464E-2</v>
       </c>
-      <c r="K187" s="13"/>
-      <c r="L187" s="14"/>
-      <c r="M187" s="14"/>
-      <c r="N187" s="15"/>
-      <c r="O187" s="16"/>
-      <c r="P187" s="17"/>
-      <c r="Q187" s="16"/>
-      <c r="R187" s="17"/>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>45870</v>
       </c>
@@ -6396,16 +6239,8 @@
       <c r="I188" s="9">
         <v>1.3296052523578054E-3</v>
       </c>
-      <c r="K188" s="13"/>
-      <c r="L188" s="14"/>
-      <c r="M188" s="14"/>
-      <c r="N188" s="15"/>
-      <c r="O188" s="16"/>
-      <c r="P188" s="17"/>
-      <c r="Q188" s="16"/>
-      <c r="R188" s="17"/>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>45870</v>
       </c>
@@ -6433,16 +6268,8 @@
       <c r="I189" s="9">
         <v>0</v>
       </c>
-      <c r="K189" s="13"/>
-      <c r="L189" s="14"/>
-      <c r="M189" s="14"/>
-      <c r="N189" s="15"/>
-      <c r="O189" s="16"/>
-      <c r="P189" s="17"/>
-      <c r="Q189" s="16"/>
-      <c r="R189" s="17"/>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>45870</v>
       </c>
@@ -6470,14 +6297,6 @@
       <c r="I190" s="9">
         <v>0</v>
       </c>
-      <c r="K190" s="13"/>
-      <c r="L190" s="14"/>
-      <c r="M190" s="14"/>
-      <c r="N190" s="15"/>
-      <c r="O190" s="16"/>
-      <c r="P190" s="17"/>
-      <c r="Q190" s="16"/>
-      <c r="R190" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/planilha base.xlsx
+++ b/planilha base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmorimPedro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{730D7A8A-1B9E-40C5-B404-6DEB5DE31536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FB18E8-804A-47E0-B594-3FF0AB4DB71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6EECC71E-FF82-43C4-9D0A-1C26EA27CC85}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="72">
   <si>
     <t>Asset Class</t>
   </si>
@@ -252,45 +252,6 @@
   </si>
   <si>
     <t>Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      High Grade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      High Yield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      CoCos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Emerging Markets Debt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      EM Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Mixed Debt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Distressed Debt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     US Government</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     US Equity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     US Growth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     European Equty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Emerging Markets Equity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     World Equity</t>
   </si>
 </sst>
 </file>
@@ -772,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC18D9FE-18C6-4540-87BA-D04BEE49D590}">
   <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5752,7 +5713,7 @@
         <v>45870</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>26</v>
@@ -5781,7 +5742,7 @@
         <v>45870</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>29</v>
@@ -5810,7 +5771,7 @@
         <v>45870</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>32</v>
@@ -5839,7 +5800,7 @@
         <v>45870</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>35</v>
@@ -5868,7 +5829,7 @@
         <v>45870</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>38</v>
@@ -5897,7 +5858,7 @@
         <v>45870</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>40</v>
@@ -5926,7 +5887,7 @@
         <v>45870</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>43</v>
@@ -5955,7 +5916,7 @@
         <v>45870</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>46</v>
@@ -6013,7 +5974,7 @@
         <v>45870</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>8</v>
@@ -6042,7 +6003,7 @@
         <v>45870</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>8</v>
@@ -6071,7 +6032,7 @@
         <v>45870</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>8</v>
@@ -6100,7 +6061,7 @@
         <v>45870</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>8</v>
@@ -6129,7 +6090,7 @@
         <v>45870</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>8</v>

--- a/planilha base.xlsx
+++ b/planilha base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmorimPedro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FB18E8-804A-47E0-B594-3FF0AB4DB71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A62218F-095E-408A-914E-A61F0EEDFCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6EECC71E-FF82-43C4-9D0A-1C26EA27CC85}"/>
   </bookViews>
@@ -734,7 +734,7 @@
   <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planilha base.xlsx
+++ b/planilha base.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmorimPedro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmorimPedro\Downloads\carteiravsbenchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A62218F-095E-408A-914E-A61F0EEDFCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FDFF9A-B2CE-4B5F-97C7-1DC20A13FBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6EECC71E-FF82-43C4-9D0A-1C26EA27CC85}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="72">
   <si>
     <t>Asset Class</t>
   </si>
@@ -731,14 +731,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC18D9FE-18C6-4540-87BA-D04BEE49D590}">
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:L211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D204" sqref="D204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
@@ -5389,7 +5390,7 @@
         <v>-8.0643455076055389E-4</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>45839</v>
       </c>
@@ -5418,7 +5419,7 @@
         <v>1.4868385170458395E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>45839</v>
       </c>
@@ -5447,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>45839</v>
       </c>
@@ -5476,7 +5477,7 @@
         <v>2.9693644211505514E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>45839</v>
       </c>
@@ -5505,7 +5506,7 @@
         <v>9.8541729679539787E-4</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>45839</v>
       </c>
@@ -5534,7 +5535,7 @@
         <v>1.5764822911611082E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>45839</v>
       </c>
@@ -5563,7 +5564,7 @@
         <v>8.550299861882632E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>45839</v>
       </c>
@@ -5592,7 +5593,7 @@
         <v>8.0703855481177025E-4</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>45839</v>
       </c>
@@ -5621,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>45839</v>
       </c>
@@ -5650,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>45870</v>
       </c>
@@ -5678,8 +5679,11 @@
       <c r="I170" s="9">
         <v>-4.9175379254796491E-3</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" s="9"/>
+      <c r="K170" s="7"/>
+      <c r="L170" s="9"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>45870</v>
       </c>
@@ -5707,8 +5711,11 @@
       <c r="I171" s="9">
         <v>3.9012277641857385E-2</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" s="9"/>
+      <c r="K171" s="7"/>
+      <c r="L171" s="9"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>45870</v>
       </c>
@@ -5736,8 +5743,11 @@
       <c r="I172" s="9">
         <v>1.521312139331938E-2</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" s="9"/>
+      <c r="K172" s="7"/>
+      <c r="L172" s="9"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>45870</v>
       </c>
@@ -5765,8 +5775,11 @@
       <c r="I173" s="9">
         <v>2.6940157822306775E-3</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="9"/>
+      <c r="K173" s="7"/>
+      <c r="L173" s="9"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>45870</v>
       </c>
@@ -5794,8 +5807,11 @@
       <c r="I174" s="9">
         <v>-1.1941716885671609E-3</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="9"/>
+      <c r="K174" s="7"/>
+      <c r="L174" s="9"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>45870</v>
       </c>
@@ -5823,8 +5839,11 @@
       <c r="I175" s="9">
         <v>5.7143949540638134E-3</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" s="9"/>
+      <c r="K175" s="7"/>
+      <c r="L175" s="9"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>45870</v>
       </c>
@@ -5852,8 +5871,11 @@
       <c r="I176" s="9">
         <v>3.3603575854561419E-3</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" s="9"/>
+      <c r="K176" s="7"/>
+      <c r="L176" s="9"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>45870</v>
       </c>
@@ -5881,8 +5903,11 @@
       <c r="I177" s="9">
         <v>9.0144602116254257E-3</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="9"/>
+      <c r="K177" s="7"/>
+      <c r="L177" s="9"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>45870</v>
       </c>
@@ -5910,8 +5935,11 @@
       <c r="I178" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" s="9"/>
+      <c r="K178" s="7"/>
+      <c r="L178" s="9"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>45870</v>
       </c>
@@ -5939,8 +5967,11 @@
       <c r="I179" s="9">
         <v>4.2100994037291093E-3</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" s="9"/>
+      <c r="K179" s="7"/>
+      <c r="L179" s="9"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>45870</v>
       </c>
@@ -5968,8 +5999,11 @@
       <c r="I180" s="9">
         <v>1.9765433825468946E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" s="9"/>
+      <c r="K180" s="7"/>
+      <c r="L180" s="9"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>45870</v>
       </c>
@@ -5997,8 +6031,11 @@
       <c r="I181" s="9">
         <v>3.4039286834909328E-4</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181" s="9"/>
+      <c r="K181" s="7"/>
+      <c r="L181" s="9"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>45870</v>
       </c>
@@ -6026,8 +6063,11 @@
       <c r="I182" s="9">
         <v>1.3638625143571788E-2</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" s="9"/>
+      <c r="K182" s="7"/>
+      <c r="L182" s="9"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>45870</v>
       </c>
@@ -6055,8 +6095,11 @@
       <c r="I183" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" s="9"/>
+      <c r="K183" s="7"/>
+      <c r="L183" s="9"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>45870</v>
       </c>
@@ -6084,8 +6127,11 @@
       <c r="I184" s="9">
         <v>3.7002360841245879E-3</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" s="9"/>
+      <c r="K184" s="7"/>
+      <c r="L184" s="9"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>45870</v>
       </c>
@@ -6113,8 +6159,11 @@
       <c r="I185" s="9">
         <v>2.0861797294234748E-3</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" s="9"/>
+      <c r="K185" s="7"/>
+      <c r="L185" s="9"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>45870</v>
       </c>
@@ -6142,8 +6191,11 @@
       <c r="I186" s="9">
         <v>7.8048293874576902E-3</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" s="9"/>
+      <c r="K186" s="7"/>
+      <c r="L186" s="9"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>45870</v>
       </c>
@@ -6171,8 +6223,11 @@
       <c r="I187" s="9">
         <v>1.0776329655270464E-2</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" s="9"/>
+      <c r="K187" s="7"/>
+      <c r="L187" s="9"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>45870</v>
       </c>
@@ -6200,8 +6255,11 @@
       <c r="I188" s="9">
         <v>1.3296052523578054E-3</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188" s="9"/>
+      <c r="K188" s="7"/>
+      <c r="L188" s="9"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>45870</v>
       </c>
@@ -6229,8 +6287,11 @@
       <c r="I189" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" s="9"/>
+      <c r="K189" s="7"/>
+      <c r="L189" s="9"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>45870</v>
       </c>
@@ -6257,6 +6318,618 @@
       </c>
       <c r="I190" s="9">
         <v>0</v>
+      </c>
+      <c r="J190" s="9"/>
+      <c r="K190" s="7"/>
+      <c r="L190" s="9"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A191" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E191" s="11">
+        <v>0.11019231603227203</v>
+      </c>
+      <c r="F191" s="7">
+        <v>3.319084385822061E-4</v>
+      </c>
+      <c r="G191" s="9">
+        <v>3.3291030278731482E-4</v>
+      </c>
+      <c r="H191" s="7">
+        <v>3.2933728454145302E-3</v>
+      </c>
+      <c r="I191" s="9">
+        <v>-4.4979670100069834E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A192" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E192" s="11">
+        <v>0.47525833850012411</v>
+      </c>
+      <c r="F192" s="7">
+        <v>4.9902125542513037E-3</v>
+      </c>
+      <c r="G192" s="9">
+        <v>6.5442621134771707E-3</v>
+      </c>
+      <c r="H192" s="7">
+        <v>2.9846223657807792E-2</v>
+      </c>
+      <c r="I192" s="9">
+        <v>4.601307848159715E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E193" s="11">
+        <v>0.19354034966519451</v>
+      </c>
+      <c r="F193" s="7">
+        <v>2.187005951216698E-3</v>
+      </c>
+      <c r="G193" s="9">
+        <v>2.3774772357617081E-3</v>
+      </c>
+      <c r="H193" s="7">
+        <v>1.1980147644275539E-2</v>
+      </c>
+      <c r="I193" s="9">
+        <v>1.7755794959571709E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E194" s="11">
+        <v>4.393808970867856E-2</v>
+      </c>
+      <c r="F194" s="7">
+        <v>3.9104899840723917E-4</v>
+      </c>
+      <c r="G194" s="9">
+        <v>3.874624558066036E-4</v>
+      </c>
+      <c r="H194" s="7">
+        <v>3.1986929307917995E-3</v>
+      </c>
+      <c r="I194" s="9">
+        <v>3.1053064816854974E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E195" s="11">
+        <v>0</v>
+      </c>
+      <c r="F195" s="7">
+        <v>0</v>
+      </c>
+      <c r="G195" s="9">
+        <v>0</v>
+      </c>
+      <c r="H195" s="7">
+        <v>0</v>
+      </c>
+      <c r="I195" s="9">
+        <v>-1.1914618342282394E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D196" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E196" s="11">
+        <v>4.4943551969111727E-2</v>
+      </c>
+      <c r="F196" s="7">
+        <v>7.0561376591505404E-4</v>
+      </c>
+      <c r="G196" s="9">
+        <v>1.4575562874360689E-3</v>
+      </c>
+      <c r="H196" s="7">
+        <v>4.8314318366795101E-3</v>
+      </c>
+      <c r="I196" s="9">
+        <v>7.2827138846488851E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E197" s="11">
+        <v>0</v>
+      </c>
+      <c r="F197" s="7">
+        <v>0</v>
+      </c>
+      <c r="G197" s="9">
+        <v>0</v>
+      </c>
+      <c r="H197" s="7">
+        <v>0</v>
+      </c>
+      <c r="I197" s="9">
+        <v>3.3527321496243795E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E198" s="11">
+        <v>9.8989519553941183E-2</v>
+      </c>
+      <c r="F198" s="7">
+        <v>9.997941474948059E-4</v>
+      </c>
+      <c r="G198" s="9">
+        <v>1.3899521979822476E-3</v>
+      </c>
+      <c r="H198" s="7">
+        <v>6.6669441419579378E-3</v>
+      </c>
+      <c r="I198" s="9">
+        <v>1.0498166205078069E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E199" s="11">
+        <v>0</v>
+      </c>
+      <c r="F199" s="7">
+        <v>0</v>
+      </c>
+      <c r="G199" s="9">
+        <v>0</v>
+      </c>
+      <c r="H199" s="7">
+        <v>0</v>
+      </c>
+      <c r="I199" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E200" s="11">
+        <v>9.3846827603198124E-2</v>
+      </c>
+      <c r="F200" s="7">
+        <v>9.5723764155262092E-4</v>
+      </c>
+      <c r="G200" s="9">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="H200" s="7">
+        <v>5.0583440078123794E-3</v>
+      </c>
+      <c r="I200" s="9">
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E201" s="11">
+        <v>0.226728484630008</v>
+      </c>
+      <c r="F201" s="7">
+        <v>8.0715340528282834E-3</v>
+      </c>
+      <c r="G201" s="9">
+        <v>1.0436093170480894E-2</v>
+      </c>
+      <c r="H201" s="7">
+        <v>3.3238395846759174E-2</v>
+      </c>
+      <c r="I201" s="9">
+        <v>3.0963135377441484E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E202" s="11">
+        <v>4.2949175287504485E-2</v>
+      </c>
+      <c r="F202" s="7">
+        <v>1.5289906402351596E-3</v>
+      </c>
+      <c r="G202" s="9">
+        <v>1.0154406222492782E-3</v>
+      </c>
+      <c r="H202" s="7">
+        <v>6.2963490971481581E-3</v>
+      </c>
+      <c r="I202" s="9">
+        <v>1.4335303688439889E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E203" s="11">
+        <v>0.12961474215734423</v>
+      </c>
+      <c r="F203" s="7">
+        <v>4.6142848208014543E-3</v>
+      </c>
+      <c r="G203" s="9">
+        <v>5.0350026728010304E-3</v>
+      </c>
+      <c r="H203" s="7">
+        <v>1.9001521200266665E-2</v>
+      </c>
+      <c r="I203" s="9">
+        <v>1.9031764051594409E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E204" s="11">
+        <v>0</v>
+      </c>
+      <c r="F204" s="7">
+        <v>0</v>
+      </c>
+      <c r="G204" s="9">
+        <v>0</v>
+      </c>
+      <c r="H204" s="7">
+        <v>0</v>
+      </c>
+      <c r="I204" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E205" s="11">
+        <v>2.7124124082333268E-2</v>
+      </c>
+      <c r="F205" s="7">
+        <v>9.6561881733106438E-4</v>
+      </c>
+      <c r="G205" s="9">
+        <v>1.3680447121012297E-3</v>
+      </c>
+      <c r="H205" s="7">
+        <v>3.9763965904700575E-3</v>
+      </c>
+      <c r="I205" s="9">
+        <v>5.1656012810432517E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E206" s="11">
+        <v>2.7040443102826012E-2</v>
+      </c>
+      <c r="F206" s="7">
+        <v>9.6263977446060605E-4</v>
+      </c>
+      <c r="G206" s="9">
+        <v>3.0176051633293544E-3</v>
+      </c>
+      <c r="H206" s="7">
+        <v>3.9641289588742941E-3</v>
+      </c>
+      <c r="I206" s="9">
+        <v>5.3322396759598305E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" s="11">
+        <v>0.10704515670200816</v>
+      </c>
+      <c r="F207" s="7">
+        <v>2.0231534616679545E-3</v>
+      </c>
+      <c r="G207" s="9">
+        <v>-1.972687351531666E-4</v>
+      </c>
+      <c r="H207" s="7">
+        <v>7.8785235332677998E-3</v>
+      </c>
+      <c r="I207" s="9">
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E208" s="11">
+        <v>5.8366193223647833E-2</v>
+      </c>
+      <c r="F208" s="7">
+        <v>1.0447548587032961E-3</v>
+      </c>
+      <c r="G208" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H208" s="7">
+        <v>3.4669518774846815E-3</v>
+      </c>
+      <c r="I208" s="9">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E209" s="11">
+        <v>2.2192661670125881E-2</v>
+      </c>
+      <c r="F209" s="7">
+        <v>9.9866977515566453E-5</v>
+      </c>
+      <c r="G209" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="H209" s="7">
+        <v>1.3670679588797543E-3</v>
+      </c>
+      <c r="I209" s="9">
+        <v>1.39E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E210" s="11">
+        <v>0</v>
+      </c>
+      <c r="F210" s="7">
+        <v>0</v>
+      </c>
+      <c r="G210" s="9">
+        <v>0</v>
+      </c>
+      <c r="H210" s="7">
+        <v>0</v>
+      </c>
+      <c r="I210" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="8">
+        <v>45901</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D211" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E211" s="11">
+        <v>2.0041976270155602E-2</v>
+      </c>
+      <c r="F211" s="7">
+        <v>3.5474297998175418E-4</v>
+      </c>
+      <c r="G211" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="H211" s="7">
+        <v>1.9581010815942022E-3</v>
+      </c>
+      <c r="I211" s="9">
+        <v>9.0000000000000006E-5</v>
       </c>
     </row>
   </sheetData>

--- a/planilha base.xlsx
+++ b/planilha base.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmorimPedro\Downloads\carteiravsbenchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FDFF9A-B2CE-4B5F-97C7-1DC20A13FBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7DE3B9-4309-42E6-8FC4-640670E38EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6EECC71E-FF82-43C4-9D0A-1C26EA27CC85}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="72">
   <si>
     <t>Asset Class</t>
   </si>
@@ -731,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC18D9FE-18C6-4540-87BA-D04BEE49D590}">
-  <dimension ref="A1:L211"/>
+  <dimension ref="A1:I253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D204" sqref="D204"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="K160" sqref="K160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5390,7 +5390,7 @@
         <v>-8.0643455076055389E-4</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>45839</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>1.4868385170458395E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>45839</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>45839</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>2.9693644211505514E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>45839</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>9.8541729679539787E-4</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>45839</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>1.5764822911611082E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>45839</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>8.550299861882632E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>45839</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>8.0703855481177025E-4</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>45839</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>45839</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>45870</v>
       </c>
@@ -5679,11 +5679,8 @@
       <c r="I170" s="9">
         <v>-4.9175379254796491E-3</v>
       </c>
-      <c r="J170" s="9"/>
-      <c r="K170" s="7"/>
-      <c r="L170" s="9"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>45870</v>
       </c>
@@ -5711,11 +5708,8 @@
       <c r="I171" s="9">
         <v>3.9012277641857385E-2</v>
       </c>
-      <c r="J171" s="9"/>
-      <c r="K171" s="7"/>
-      <c r="L171" s="9"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>45870</v>
       </c>
@@ -5743,11 +5737,8 @@
       <c r="I172" s="9">
         <v>1.521312139331938E-2</v>
       </c>
-      <c r="J172" s="9"/>
-      <c r="K172" s="7"/>
-      <c r="L172" s="9"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>45870</v>
       </c>
@@ -5775,11 +5766,8 @@
       <c r="I173" s="9">
         <v>2.6940157822306775E-3</v>
       </c>
-      <c r="J173" s="9"/>
-      <c r="K173" s="7"/>
-      <c r="L173" s="9"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>45870</v>
       </c>
@@ -5807,11 +5795,8 @@
       <c r="I174" s="9">
         <v>-1.1941716885671609E-3</v>
       </c>
-      <c r="J174" s="9"/>
-      <c r="K174" s="7"/>
-      <c r="L174" s="9"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>45870</v>
       </c>
@@ -5839,11 +5824,8 @@
       <c r="I175" s="9">
         <v>5.7143949540638134E-3</v>
       </c>
-      <c r="J175" s="9"/>
-      <c r="K175" s="7"/>
-      <c r="L175" s="9"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>45870</v>
       </c>
@@ -5871,11 +5853,8 @@
       <c r="I176" s="9">
         <v>3.3603575854561419E-3</v>
       </c>
-      <c r="J176" s="9"/>
-      <c r="K176" s="7"/>
-      <c r="L176" s="9"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>45870</v>
       </c>
@@ -5903,11 +5882,8 @@
       <c r="I177" s="9">
         <v>9.0144602116254257E-3</v>
       </c>
-      <c r="J177" s="9"/>
-      <c r="K177" s="7"/>
-      <c r="L177" s="9"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>45870</v>
       </c>
@@ -5935,11 +5911,8 @@
       <c r="I178" s="9">
         <v>0</v>
       </c>
-      <c r="J178" s="9"/>
-      <c r="K178" s="7"/>
-      <c r="L178" s="9"/>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>45870</v>
       </c>
@@ -5967,11 +5940,8 @@
       <c r="I179" s="9">
         <v>4.2100994037291093E-3</v>
       </c>
-      <c r="J179" s="9"/>
-      <c r="K179" s="7"/>
-      <c r="L179" s="9"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>45870</v>
       </c>
@@ -5999,11 +5969,8 @@
       <c r="I180" s="9">
         <v>1.9765433825468946E-2</v>
       </c>
-      <c r="J180" s="9"/>
-      <c r="K180" s="7"/>
-      <c r="L180" s="9"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>45870</v>
       </c>
@@ -6031,11 +5998,8 @@
       <c r="I181" s="9">
         <v>3.4039286834909328E-4</v>
       </c>
-      <c r="J181" s="9"/>
-      <c r="K181" s="7"/>
-      <c r="L181" s="9"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>45870</v>
       </c>
@@ -6063,11 +6027,8 @@
       <c r="I182" s="9">
         <v>1.3638625143571788E-2</v>
       </c>
-      <c r="J182" s="9"/>
-      <c r="K182" s="7"/>
-      <c r="L182" s="9"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>45870</v>
       </c>
@@ -6095,11 +6056,8 @@
       <c r="I183" s="9">
         <v>0</v>
       </c>
-      <c r="J183" s="9"/>
-      <c r="K183" s="7"/>
-      <c r="L183" s="9"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>45870</v>
       </c>
@@ -6127,11 +6085,8 @@
       <c r="I184" s="9">
         <v>3.7002360841245879E-3</v>
       </c>
-      <c r="J184" s="9"/>
-      <c r="K184" s="7"/>
-      <c r="L184" s="9"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>45870</v>
       </c>
@@ -6159,11 +6114,8 @@
       <c r="I185" s="9">
         <v>2.0861797294234748E-3</v>
       </c>
-      <c r="J185" s="9"/>
-      <c r="K185" s="7"/>
-      <c r="L185" s="9"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>45870</v>
       </c>
@@ -6191,11 +6143,8 @@
       <c r="I186" s="9">
         <v>7.8048293874576902E-3</v>
       </c>
-      <c r="J186" s="9"/>
-      <c r="K186" s="7"/>
-      <c r="L186" s="9"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>45870</v>
       </c>
@@ -6223,11 +6172,8 @@
       <c r="I187" s="9">
         <v>1.0776329655270464E-2</v>
       </c>
-      <c r="J187" s="9"/>
-      <c r="K187" s="7"/>
-      <c r="L187" s="9"/>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>45870</v>
       </c>
@@ -6255,11 +6201,8 @@
       <c r="I188" s="9">
         <v>1.3296052523578054E-3</v>
       </c>
-      <c r="J188" s="9"/>
-      <c r="K188" s="7"/>
-      <c r="L188" s="9"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>45870</v>
       </c>
@@ -6287,11 +6230,8 @@
       <c r="I189" s="9">
         <v>0</v>
       </c>
-      <c r="J189" s="9"/>
-      <c r="K189" s="7"/>
-      <c r="L189" s="9"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>45870</v>
       </c>
@@ -6319,11 +6259,8 @@
       <c r="I190" s="9">
         <v>0</v>
       </c>
-      <c r="J190" s="9"/>
-      <c r="K190" s="7"/>
-      <c r="L190" s="9"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>45901</v>
       </c>
@@ -6352,7 +6289,7 @@
         <v>-4.4979670100069834E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>45901</v>
       </c>
@@ -6930,6 +6867,1224 @@
       </c>
       <c r="I211" s="9">
         <v>9.0000000000000006E-5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E212" s="11">
+        <v>0.11019231603227203</v>
+      </c>
+      <c r="F212" s="7">
+        <v>3.1447578769007738E-4</v>
+      </c>
+      <c r="G212" s="9">
+        <v>1.346301772140718E-3</v>
+      </c>
+      <c r="H212" s="7">
+        <v>3.3845042888721853E-3</v>
+      </c>
+      <c r="I212" s="9">
+        <v>-3.0058627638293125E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D213" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E213" s="11">
+        <v>0.47525833850012411</v>
+      </c>
+      <c r="F213" s="7">
+        <v>2.8159120412445519E-3</v>
+      </c>
+      <c r="G213" s="9">
+        <v>3.2437474641410034E-3</v>
+      </c>
+      <c r="H213" s="7">
+        <v>3.1474629751330231E-2</v>
+      </c>
+      <c r="I213" s="9">
+        <v>4.9536668874664687E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E214" s="11">
+        <v>0.19354034966519451</v>
+      </c>
+      <c r="F214" s="7">
+        <v>1.0630400508236007E-3</v>
+      </c>
+      <c r="G214" s="9">
+        <v>1.5230048690251024E-3</v>
+      </c>
+      <c r="H214" s="7">
+        <v>1.1919990078087589E-2</v>
+      </c>
+      <c r="I214" s="9">
+        <v>1.9420680938586388E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E215" s="11">
+        <v>4.393808970867856E-2</v>
+      </c>
+      <c r="F215" s="7">
+        <v>-4.3632094099887972E-6</v>
+      </c>
+      <c r="G215" s="9">
+        <v>2.4195729990511092E-4</v>
+      </c>
+      <c r="H215" s="7">
+        <v>3.1676900316518664E-3</v>
+      </c>
+      <c r="I215" s="9">
+        <v>3.3707154172428386E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E216" s="11">
+        <v>0</v>
+      </c>
+      <c r="F216" s="7">
+        <v>0</v>
+      </c>
+      <c r="G216" s="9">
+        <v>0</v>
+      </c>
+      <c r="H216" s="7">
+        <v>0</v>
+      </c>
+      <c r="I216" s="9">
+        <v>-1.1906963891792376E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E217" s="11">
+        <v>4.4943551969111727E-2</v>
+      </c>
+      <c r="F217" s="7">
+        <v>8.864598785326039E-4</v>
+      </c>
+      <c r="G217" s="9">
+        <v>6.2462725947605565E-4</v>
+      </c>
+      <c r="H217" s="7">
+        <v>5.8182366646835374E-3</v>
+      </c>
+      <c r="I217" s="9">
+        <v>7.9629637235592438E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E218" s="11">
+        <v>0</v>
+      </c>
+      <c r="F218" s="7">
+        <v>0</v>
+      </c>
+      <c r="G218" s="9">
+        <v>0</v>
+      </c>
+      <c r="H218" s="7">
+        <v>0</v>
+      </c>
+      <c r="I218" s="9">
+        <v>3.3505782138869237E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E219" s="11">
+        <v>9.8989519553941183E-2</v>
+      </c>
+      <c r="F219" s="7">
+        <v>2.9361482155960305E-4</v>
+      </c>
+      <c r="G219" s="9">
+        <v>1.1159212352221563E-4</v>
+      </c>
+      <c r="H219" s="7">
+        <v>6.8999483066506722E-3</v>
+      </c>
+      <c r="I219" s="9">
+        <v>1.0599282916223224E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E220" s="11">
+        <v>0</v>
+      </c>
+      <c r="F220" s="7">
+        <v>0</v>
+      </c>
+      <c r="G220" s="9">
+        <v>0</v>
+      </c>
+      <c r="H220" s="7">
+        <v>0</v>
+      </c>
+      <c r="I220" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E221" s="11">
+        <v>9.3846827603198124E-2</v>
+      </c>
+      <c r="F221" s="7">
+        <v>3.5495357693904464E-4</v>
+      </c>
+      <c r="G221" s="9">
+        <v>7.4247268131083499E-4</v>
+      </c>
+      <c r="H221" s="7">
+        <v>5.4083716065186013E-3</v>
+      </c>
+      <c r="I221" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E222" s="11">
+        <v>0.226728484630008</v>
+      </c>
+      <c r="F222" s="7">
+        <v>5.5999448399785736E-3</v>
+      </c>
+      <c r="G222" s="9">
+        <v>7.0820000695693422E-3</v>
+      </c>
+      <c r="H222" s="7">
+        <v>4.094077319984335E-2</v>
+      </c>
+      <c r="I222" s="9">
+        <v>3.8770056368820735E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E223" s="11">
+        <v>4.2949175287504485E-2</v>
+      </c>
+      <c r="F223" s="7">
+        <v>1.0616544482646326E-3</v>
+      </c>
+      <c r="G223" s="9">
+        <v>4.9278510924511668E-4</v>
+      </c>
+      <c r="H223" s="7">
+        <v>7.7616753780691619E-3</v>
+      </c>
+      <c r="I223" s="9">
+        <v>1.9772206578039095E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E224" s="11">
+        <v>0.12961474215734423</v>
+      </c>
+      <c r="F224" s="7">
+        <v>3.1764951277039742E-3</v>
+      </c>
+      <c r="G224" s="9">
+        <v>5.2579325392163563E-3</v>
+      </c>
+      <c r="H224" s="7">
+        <v>2.3223115639516449E-2</v>
+      </c>
+      <c r="I224" s="9">
+        <v>2.4830445803600842E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E225" s="11">
+        <v>0</v>
+      </c>
+      <c r="F225" s="7">
+        <v>0</v>
+      </c>
+      <c r="G225" s="9">
+        <v>0</v>
+      </c>
+      <c r="H225" s="7">
+        <v>0</v>
+      </c>
+      <c r="I225" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E226" s="11">
+        <v>2.7124124082333268E-2</v>
+      </c>
+      <c r="F226" s="7">
+        <v>8.8443371702726266E-4</v>
+      </c>
+      <c r="G226" s="9">
+        <v>3.4690751949184497E-4</v>
+      </c>
+      <c r="H226" s="7">
+        <v>6.4660280152413312E-3</v>
+      </c>
+      <c r="I226" s="9">
+        <v>5.5456744160488104E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E227" s="11">
+        <v>2.7040443102826012E-2</v>
+      </c>
+      <c r="F227" s="7">
+        <v>4.7736154698270429E-4</v>
+      </c>
+      <c r="G227" s="9">
+        <v>9.8437490161602456E-4</v>
+      </c>
+      <c r="H227" s="7">
+        <v>3.4899541670164085E-3</v>
+      </c>
+      <c r="I227" s="9">
+        <v>6.4167154913671726E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D228" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E228" s="11">
+        <v>0.10704515670200816</v>
+      </c>
+      <c r="F228" s="7">
+        <v>2.0457365773866119E-3</v>
+      </c>
+      <c r="G228" s="9">
+        <v>-2.5989432278165057E-4</v>
+      </c>
+      <c r="H228" s="7">
+        <v>8.6900092218901385E-3</v>
+      </c>
+      <c r="I228" s="9">
+        <v>7.2825118944608762E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D229" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E229" s="11">
+        <v>5.8366193223647833E-2</v>
+      </c>
+      <c r="F229" s="7">
+        <v>1.5108442253672499E-3</v>
+      </c>
+      <c r="G229" s="9">
+        <v>1.3915040230649536E-3</v>
+      </c>
+      <c r="H229" s="7">
+        <v>5.1050009958698087E-3</v>
+      </c>
+      <c r="I229" s="9">
+        <v>1.7697496239204621E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E230" s="11">
+        <v>2.2192661670125881E-2</v>
+      </c>
+      <c r="F230" s="7">
+        <v>-3.8724932715401432E-4</v>
+      </c>
+      <c r="G230" s="9">
+        <v>-6.4742136591874151E-4</v>
+      </c>
+      <c r="H230" s="7">
+        <v>9.0003552409971446E-4</v>
+      </c>
+      <c r="I230" s="9">
+        <v>6.8973765501448346E-4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D231" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E231" s="11">
+        <v>0</v>
+      </c>
+      <c r="F231" s="7">
+        <v>0</v>
+      </c>
+      <c r="G231" s="9">
+        <v>0</v>
+      </c>
+      <c r="H231" s="7">
+        <v>0</v>
+      </c>
+      <c r="I231" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="8">
+        <v>45931</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E232" s="11">
+        <v>2.0041976270155602E-2</v>
+      </c>
+      <c r="F232" s="7">
+        <v>6.7814596683284198E-4</v>
+      </c>
+      <c r="G232" s="9">
+        <v>4.0653887257840354E-4</v>
+      </c>
+      <c r="H232" s="7">
+        <v>6.6074222078137974E-3</v>
+      </c>
+      <c r="I232" s="9">
+        <v>5.6994501582880168E-4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D233" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E233" s="11">
+        <v>9.5766043771596088E-2</v>
+      </c>
+      <c r="F233" s="7">
+        <v>2.8661180800109185E-4</v>
+      </c>
+      <c r="G233" s="9">
+        <v>6.8964016515471742E-5</v>
+      </c>
+      <c r="H233" s="7">
+        <v>3.4468992329674104E-3</v>
+      </c>
+      <c r="I233" s="9">
+        <v>-2.9279962694195769E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E234" s="11">
+        <v>0.44288701451520718</v>
+      </c>
+      <c r="F234" s="7">
+        <v>2.7901881914458053E-3</v>
+      </c>
+      <c r="G234" s="9">
+        <v>7.1221522705713122E-4</v>
+      </c>
+      <c r="H234" s="7">
+        <v>3.3703701804607265E-2</v>
+      </c>
+      <c r="I234" s="9">
+        <v>5.0318524916349881E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D235" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E235" s="11">
+        <v>0.17382249346601836</v>
+      </c>
+      <c r="F235" s="7">
+        <v>1.0603172101427121E-3</v>
+      </c>
+      <c r="G235" s="9">
+        <v>-5.6461225997802693E-6</v>
+      </c>
+      <c r="H235" s="7">
+        <v>1.3019304760604774E-2</v>
+      </c>
+      <c r="I235" s="9">
+        <v>1.941371127369312E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E236" s="11">
+        <v>4.3621025642765918E-2</v>
+      </c>
+      <c r="F236" s="7">
+        <v>3.2715769232074437E-4</v>
+      </c>
+      <c r="G236" s="9">
+        <v>9.8480095395943632E-5</v>
+      </c>
+      <c r="H236" s="7">
+        <v>3.5158546668069331E-3</v>
+      </c>
+      <c r="I236" s="9">
+        <v>3.4807149622360202E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D237" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E237" s="11">
+        <v>0</v>
+      </c>
+      <c r="F237" s="7">
+        <v>0</v>
+      </c>
+      <c r="G237" s="9">
+        <v>0</v>
+      </c>
+      <c r="H237" s="7">
+        <v>0</v>
+      </c>
+      <c r="I237" s="9">
+        <v>-1.1905110325393655E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E238" s="11">
+        <v>3.4372728402122556E-2</v>
+      </c>
+      <c r="F238" s="7">
+        <v>1.7186364201061279E-4</v>
+      </c>
+      <c r="G238" s="9">
+        <v>-3.8654475523614286E-5</v>
+      </c>
+      <c r="H238" s="7">
+        <v>4.6368810614463322E-3</v>
+      </c>
+      <c r="I238" s="9">
+        <v>7.9202038468670927E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D239" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E239" s="11">
+        <v>0</v>
+      </c>
+      <c r="F239" s="7">
+        <v>0</v>
+      </c>
+      <c r="G239" s="9">
+        <v>0</v>
+      </c>
+      <c r="H239" s="7">
+        <v>0</v>
+      </c>
+      <c r="I239" s="9">
+        <v>3.3500566267510266E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E240" s="11">
+        <v>9.7904723200249552E-2</v>
+      </c>
+      <c r="F240" s="7">
+        <v>6.6575211776169702E-4</v>
+      </c>
+      <c r="G240" s="9">
+        <v>2.7827895044934577E-4</v>
+      </c>
+      <c r="H240" s="7">
+        <v>7.6120922288194027E-3</v>
+      </c>
+      <c r="I240" s="9">
+        <v>1.0915275381683277E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E241" s="11">
+        <v>0</v>
+      </c>
+      <c r="F241" s="7">
+        <v>0</v>
+      </c>
+      <c r="G241" s="9">
+        <v>0</v>
+      </c>
+      <c r="H241" s="7">
+        <v>0</v>
+      </c>
+      <c r="I241" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E242" s="11">
+        <v>9.3166043804050733E-2</v>
+      </c>
+      <c r="F242" s="7">
+        <v>4.9378003216146889E-4</v>
+      </c>
+      <c r="G242" s="9">
+        <v>3.7975677933523624E-4</v>
+      </c>
+      <c r="H242" s="7">
+        <v>5.9253603859376267E-3</v>
+      </c>
+      <c r="I242" s="9">
+        <v>6.4290738576587205E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E243" s="11">
+        <v>0.24898137821291683</v>
+      </c>
+      <c r="F243" s="7">
+        <v>4.7306461860454198E-4</v>
+      </c>
+      <c r="G243" s="9">
+        <v>-1.3502220550985701E-3</v>
+      </c>
+      <c r="H243" s="7">
+        <v>4.3870518841115938E-2</v>
+      </c>
+      <c r="I243" s="9">
+        <v>3.7248666025724082E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E244" s="11">
+        <v>4.4654247506055463E-2</v>
+      </c>
+      <c r="F244" s="7">
+        <v>8.4843070261505382E-5</v>
+      </c>
+      <c r="G244" s="9">
+        <v>1.5883864152931552E-4</v>
+      </c>
+      <c r="H244" s="7">
+        <v>7.8680784105669716E-3</v>
+      </c>
+      <c r="I244" s="9">
+        <v>2.1551775597683041E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E245" s="11">
+        <v>0.13079042069086966</v>
+      </c>
+      <c r="F245" s="7">
+        <v>2.4850179931265235E-4</v>
+      </c>
+      <c r="G245" s="9">
+        <v>-2.2942593936774239E-3</v>
+      </c>
+      <c r="H245" s="7">
+        <v>2.3045272125731233E-2</v>
+      </c>
+      <c r="I245" s="9">
+        <v>2.2251731810225731E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E246" s="11">
+        <v>2.0991890295205894E-2</v>
+      </c>
+      <c r="F246" s="7">
+        <v>3.9884591560891201E-5</v>
+      </c>
+      <c r="G246" s="9">
+        <v>1.0618707101124291E-3</v>
+      </c>
+      <c r="H246" s="7">
+        <v>3.6987710700152783E-3</v>
+      </c>
+      <c r="I246" s="9">
+        <v>1.1917381000638269E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E247" s="11">
+        <v>3.7335510518479581E-2</v>
+      </c>
+      <c r="F247" s="7">
+        <v>7.0937469985111201E-5</v>
+      </c>
+      <c r="G247" s="9">
+        <v>2.6749090695776903E-4</v>
+      </c>
+      <c r="H247" s="7">
+        <v>6.5785169533561019E-3</v>
+      </c>
+      <c r="I247" s="9">
+        <v>5.8450163131192395E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E248" s="11">
+        <v>1.0126234457094057E-2</v>
+      </c>
+      <c r="F248" s="7">
+        <v>1.9239845468478708E-5</v>
+      </c>
+      <c r="G248" s="9">
+        <v>1.7708385313701904E-4</v>
+      </c>
+      <c r="H248" s="7">
+        <v>1.7842425113399727E-3</v>
+      </c>
+      <c r="I248" s="9">
+        <v>3.1391615939083653E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E249" s="11">
+        <v>5.0830747452121601E-3</v>
+      </c>
+      <c r="F249" s="7">
+        <v>8.8728502301630569E-4</v>
+      </c>
+      <c r="G249" s="9">
+        <v>-4.0277787778704525E-4</v>
+      </c>
+      <c r="H249" s="7">
+        <v>1.1563683725822388E-2</v>
+      </c>
+      <c r="I249" s="9">
+        <v>1.0304636690620194E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E250" s="11">
+        <v>6.2129039450073933E-2</v>
+      </c>
+      <c r="F250" s="7">
+        <v>1.8017421440521442E-3</v>
+      </c>
+      <c r="G250" s="9">
+        <v>2.6067624127482421E-3</v>
+      </c>
+      <c r="H250" s="7">
+        <v>7.3312266551087239E-3</v>
+      </c>
+      <c r="I250" s="9">
+        <v>2.0620312190018662E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E251" s="11">
+        <v>2.1623521365170366E-2</v>
+      </c>
+      <c r="F251" s="7">
+        <v>2.1839756578822069E-4</v>
+      </c>
+      <c r="G251" s="9">
+        <v>3.9904776093033662E-4</v>
+      </c>
+      <c r="H251" s="7">
+        <v>1.1438842802175123E-3</v>
+      </c>
+      <c r="I251" s="9">
+        <v>1.137481811374484E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E252" s="11">
+        <v>0</v>
+      </c>
+      <c r="F252" s="7">
+        <v>0</v>
+      </c>
+      <c r="G252" s="9">
+        <v>0</v>
+      </c>
+      <c r="H252" s="7">
+        <v>0</v>
+      </c>
+      <c r="I252" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="8">
+        <v>45962</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E253" s="11">
+        <v>5.9626542728990636E-2</v>
+      </c>
+      <c r="F253" s="7">
+        <v>4.0546049055713632E-4</v>
+      </c>
+      <c r="G253" s="9">
+        <v>-2.3521250543376E-4</v>
+      </c>
+      <c r="H253" s="7">
+        <v>7.0120814249292982E-3</v>
+      </c>
+      <c r="I253" s="9">
+        <v>3.0587716382250225E-4</v>
       </c>
     </row>
   </sheetData>

--- a/planilha base.xlsx
+++ b/planilha base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmorimPedro\Downloads\carteiravsbenchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AmorimPedro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7DE3B9-4309-42E6-8FC4-640670E38EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050CF572-1B88-4204-87AC-8D229C902347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6EECC71E-FF82-43C4-9D0A-1C26EA27CC85}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6EECC71E-FF82-43C4-9D0A-1C26EA27CC85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="72">
   <si>
     <t>Asset Class</t>
   </si>
@@ -731,15 +731,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC18D9FE-18C6-4540-87BA-D04BEE49D590}">
-  <dimension ref="A1:I253"/>
+  <dimension ref="A1:I274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="K160" sqref="K160"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="B254" sqref="B254:E274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
@@ -8087,6 +8087,615 @@
         <v>3.0587716382250225E-4</v>
       </c>
     </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E254" s="11">
+        <v>9.5766043771596088E-2</v>
+      </c>
+      <c r="F254" s="7">
+        <v>3.389381351564957E-4</v>
+      </c>
+      <c r="G254" s="9">
+        <v>-2.0537727085245762E-4</v>
+      </c>
+      <c r="H254" s="7">
+        <v>4.582990576813481E-3</v>
+      </c>
+      <c r="I254" s="9">
+        <v>-3.1599129186549789E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E255" s="11">
+        <v>0.44288701451520718</v>
+      </c>
+      <c r="F255" s="7">
+        <v>-9.1805660770526219E-4</v>
+      </c>
+      <c r="G255" s="9">
+        <v>7.3792973590084104E-4</v>
+      </c>
+      <c r="H255" s="7">
+        <v>3.2263132213642076E-2</v>
+      </c>
+      <c r="I255" s="9">
+        <v>5.1066769707794751E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E256" s="11">
+        <v>0.17382249346601836</v>
+      </c>
+      <c r="F256" s="7">
+        <v>-4.8172216616807558E-4</v>
+      </c>
+      <c r="G256" s="9">
+        <v>6.2433756845254825E-4</v>
+      </c>
+      <c r="H256" s="7">
+        <v>1.2369937052673084E-2</v>
+      </c>
+      <c r="I256" s="9">
+        <v>2.0083747968149632E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E257" s="11">
+        <v>4.3621025642765918E-2</v>
+      </c>
+      <c r="F257" s="7">
+        <v>2.1280822371354263E-4</v>
+      </c>
+      <c r="G257" s="9">
+        <v>3.3662942420736159E-4</v>
+      </c>
+      <c r="H257" s="7">
+        <v>3.7350014774213602E-3</v>
+      </c>
+      <c r="I257" s="9">
+        <v>3.8531257428040672E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E258" s="11">
+        <v>0</v>
+      </c>
+      <c r="F258" s="7">
+        <v>0</v>
+      </c>
+      <c r="G258" s="9">
+        <v>0</v>
+      </c>
+      <c r="H258" s="7">
+        <v>0</v>
+      </c>
+      <c r="I258" s="9">
+        <v>-1.186768996445129E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D259" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E259" s="11">
+        <v>3.4372728402122556E-2</v>
+      </c>
+      <c r="F259" s="7">
+        <v>1.0685666238329534E-4</v>
+      </c>
+      <c r="G259" s="9">
+        <v>-3.8088903702892851E-5</v>
+      </c>
+      <c r="H259" s="7">
+        <v>4.6248899187770016E-3</v>
+      </c>
+      <c r="I259" s="9">
+        <v>7.8704690143318028E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D260" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E260" s="11">
+        <v>0</v>
+      </c>
+      <c r="F260" s="7">
+        <v>0</v>
+      </c>
+      <c r="G260" s="9">
+        <v>0</v>
+      </c>
+      <c r="H260" s="7">
+        <v>0</v>
+      </c>
+      <c r="I260" s="9">
+        <v>3.3395266673702227E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D261" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E261" s="11">
+        <v>9.7904723200249552E-2</v>
+      </c>
+      <c r="F261" s="7">
+        <v>1.0206578442148444E-4</v>
+      </c>
+      <c r="G261" s="9">
+        <v>7.4660757177437355E-4</v>
+      </c>
+      <c r="H261" s="7">
+        <v>7.6743749334059015E-3</v>
+      </c>
+      <c r="I261" s="9">
+        <v>1.1751874450903799E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D262" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E262" s="11">
+        <v>0</v>
+      </c>
+      <c r="F262" s="7">
+        <v>0</v>
+      </c>
+      <c r="G262" s="9">
+        <v>0</v>
+      </c>
+      <c r="H262" s="7">
+        <v>0</v>
+      </c>
+      <c r="I262" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D263" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E263" s="11">
+        <v>9.3166043804050733E-2</v>
+      </c>
+      <c r="F263" s="7">
+        <v>1.8219543342717904E-5</v>
+      </c>
+      <c r="G263" s="9">
+        <v>-9.1208285922785601E-4</v>
+      </c>
+      <c r="H263" s="7">
+        <v>5.8120343263270103E-3</v>
+      </c>
+      <c r="I263" s="9">
+        <v>5.3760891850490001E-3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E264" s="11">
+        <v>0.24898137821291683</v>
+      </c>
+      <c r="F264" s="7">
+        <v>2.0874261921462607E-4</v>
+      </c>
+      <c r="G264" s="9">
+        <v>6.2435231658419972E-3</v>
+      </c>
+      <c r="H264" s="7">
+        <v>4.6236490156039672E-2</v>
+      </c>
+      <c r="I264" s="9">
+        <v>4.4241669443128143E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D265" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E265" s="11">
+        <v>4.4654247506055463E-2</v>
+      </c>
+      <c r="F265" s="7">
+        <v>3.5490451369475597E-5</v>
+      </c>
+      <c r="G265" s="9">
+        <v>3.297316860187141E-4</v>
+      </c>
+      <c r="H265" s="7">
+        <v>7.8611349783388445E-3</v>
+      </c>
+      <c r="I265" s="9">
+        <v>2.5238996938150436E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E266" s="11">
+        <v>0.13079042069086966</v>
+      </c>
+      <c r="F266" s="7">
+        <v>1.0513546426517718E-4</v>
+      </c>
+      <c r="G266" s="9">
+        <v>2.229677710695311E-3</v>
+      </c>
+      <c r="H266" s="7">
+        <v>2.3287505334736742E-2</v>
+      </c>
+      <c r="I266" s="9">
+        <v>2.4720932424724895E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E267" s="11">
+        <v>2.0991890295205894E-2</v>
+      </c>
+      <c r="F267" s="7">
+        <v>1.7650979632876239E-5</v>
+      </c>
+      <c r="G267" s="9">
+        <v>1.3177201053373162E-3</v>
+      </c>
+      <c r="H267" s="7">
+        <v>3.9096919886820866E-3</v>
+      </c>
+      <c r="I267" s="9">
+        <v>2.6886034051685805E-3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E268" s="11">
+        <v>3.7335510518479581E-2</v>
+      </c>
+      <c r="F268" s="7">
+        <v>3.3274527007025029E-5</v>
+      </c>
+      <c r="G268" s="9">
+        <v>4.4271256007781144E-4</v>
+      </c>
+      <c r="H268" s="7">
+        <v>7.3703077320560438E-3</v>
+      </c>
+      <c r="I268" s="9">
+        <v>6.3308023725862127E-3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E269" s="11">
+        <v>1.0126234457094057E-2</v>
+      </c>
+      <c r="F269" s="7">
+        <v>1.7191196940072037E-5</v>
+      </c>
+      <c r="G269" s="9">
+        <v>1.9236811037128439E-3</v>
+      </c>
+      <c r="H269" s="7">
+        <v>3.8078501222259557E-3</v>
+      </c>
+      <c r="I269" s="9">
+        <v>7.977431546833412E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E270" s="11">
+        <v>5.0830747452121601E-3</v>
+      </c>
+      <c r="F270" s="7">
+        <v>1.80519505211063E-4</v>
+      </c>
+      <c r="G270" s="9">
+        <v>3.4426423255770025E-3</v>
+      </c>
+      <c r="H270" s="7">
+        <v>1.002785851447455E-2</v>
+      </c>
+      <c r="I270" s="9">
+        <v>1.1535244621962322E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D271" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E271" s="11">
+        <v>6.2129039450073933E-2</v>
+      </c>
+      <c r="F271" s="7">
+        <v>-4.053942151190666E-4</v>
+      </c>
+      <c r="G271" s="9">
+        <v>9.8700297322486057E-4</v>
+      </c>
+      <c r="H271" s="7">
+        <v>6.9041753251816423E-3</v>
+      </c>
+      <c r="I271" s="9">
+        <v>2.1679489945734393E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E272" s="11">
+        <v>2.1623521365170366E-2</v>
+      </c>
+      <c r="F272" s="7">
+        <v>0</v>
+      </c>
+      <c r="G272" s="9">
+        <v>-2.4438375295862447E-4</v>
+      </c>
+      <c r="H272" s="7">
+        <v>0</v>
+      </c>
+      <c r="I272" s="9">
+        <v>8.5560380841368476E-4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E273" s="11">
+        <v>0</v>
+      </c>
+      <c r="F273" s="7">
+        <v>0</v>
+      </c>
+      <c r="G273" s="9">
+        <v>0</v>
+      </c>
+      <c r="H273" s="7">
+        <v>0</v>
+      </c>
+      <c r="I273" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="8">
+        <v>45992</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E274" s="11">
+        <v>5.9626542728990636E-2</v>
+      </c>
+      <c r="F274" s="7">
+        <v>-2.7109363344311423E-4</v>
+      </c>
+      <c r="G274" s="9">
+        <v>1.3314387108152264E-3</v>
+      </c>
+      <c r="H274" s="7">
+        <v>6.7833651390432591E-3</v>
+      </c>
+      <c r="I274" s="9">
+        <v>1.8211495831209768E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
